--- a/data/pca/factorExposure/factorExposure_2018-11-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.07185395019442958</v>
+        <v>0.0477112275109132</v>
       </c>
       <c r="C2">
-        <v>-0.05804413937714584</v>
+        <v>0.002053290798555265</v>
       </c>
       <c r="D2">
-        <v>0.07257283694756385</v>
+        <v>-0.02101263682495134</v>
       </c>
       <c r="E2">
-        <v>0.01501054279431226</v>
+        <v>-0.01759948160945691</v>
       </c>
       <c r="F2">
-        <v>-0.1344819587380698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03511624543476356</v>
+      </c>
+      <c r="G2">
+        <v>-0.1074926780777785</v>
+      </c>
+      <c r="H2">
+        <v>0.07011648373352047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1973690016500261</v>
+        <v>0.1197343385491433</v>
       </c>
       <c r="C3">
-        <v>-0.001856959384292897</v>
+        <v>-0.04234202384301492</v>
       </c>
       <c r="D3">
-        <v>0.1401222345382135</v>
+        <v>-0.0535229965310635</v>
       </c>
       <c r="E3">
-        <v>0.06613681065169748</v>
+        <v>-0.009624963858148029</v>
       </c>
       <c r="F3">
-        <v>-0.3672094070432912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.001797610855035632</v>
+      </c>
+      <c r="G3">
+        <v>-0.3489822425258188</v>
+      </c>
+      <c r="H3">
+        <v>0.2462458921655604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.06723968992275764</v>
+        <v>0.05762442248008448</v>
       </c>
       <c r="C4">
-        <v>-0.03031846855063939</v>
+        <v>-0.006646663610706162</v>
       </c>
       <c r="D4">
-        <v>0.05107400694415538</v>
+        <v>-0.02953076776823044</v>
       </c>
       <c r="E4">
-        <v>0.05713974920169571</v>
+        <v>0.0158486969939426</v>
       </c>
       <c r="F4">
-        <v>-0.0613107577214886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06205555101981278</v>
+      </c>
+      <c r="G4">
+        <v>-0.06044307437571245</v>
+      </c>
+      <c r="H4">
+        <v>0.02547062761671524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.00678631958016542</v>
+        <v>0.03358415734092764</v>
       </c>
       <c r="C6">
-        <v>-0.003815668458012496</v>
+        <v>-0.002790560226171296</v>
       </c>
       <c r="D6">
-        <v>0.002193691111294366</v>
+        <v>-0.01458725505377892</v>
       </c>
       <c r="E6">
-        <v>-0.004136974484562755</v>
+        <v>0.002888691545639123</v>
       </c>
       <c r="F6">
-        <v>-0.001917555503808253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02664132216688586</v>
+      </c>
+      <c r="G6">
+        <v>-0.01114285586710841</v>
+      </c>
+      <c r="H6">
+        <v>-0.03106947497895281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02729508402768602</v>
+        <v>0.02607199696668393</v>
       </c>
       <c r="C7">
-        <v>-0.02421013452798253</v>
+        <v>-0.002484506214633596</v>
       </c>
       <c r="D7">
-        <v>0.04579673314751875</v>
+        <v>-0.00338511889119207</v>
       </c>
       <c r="E7">
-        <v>0.01534179349015796</v>
+        <v>0.03486044159650144</v>
       </c>
       <c r="F7">
-        <v>-0.07232681213672695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.03010696116011773</v>
+      </c>
+      <c r="G7">
+        <v>-0.05127839284664958</v>
+      </c>
+      <c r="H7">
+        <v>0.04544463466367119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.038796442022872</v>
+        <v>0.01286047685737468</v>
       </c>
       <c r="C8">
-        <v>-0.003428296774393214</v>
+        <v>-0.006481496598528706</v>
       </c>
       <c r="D8">
-        <v>0.04245858676493287</v>
+        <v>-0.03194154051612551</v>
       </c>
       <c r="E8">
-        <v>0.04843778426305348</v>
+        <v>0.01127456943522812</v>
       </c>
       <c r="F8">
-        <v>-0.08551219557818321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.03022462770032043</v>
+      </c>
+      <c r="G8">
+        <v>-0.07120082311442216</v>
+      </c>
+      <c r="H8">
+        <v>0.05151431551864796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.05409386900700209</v>
+        <v>0.04529297870611</v>
       </c>
       <c r="C9">
-        <v>-0.02910885076823774</v>
+        <v>-0.008653474704705748</v>
       </c>
       <c r="D9">
-        <v>0.03488193214629751</v>
+        <v>-0.02033329692711027</v>
       </c>
       <c r="E9">
-        <v>0.06362684695752185</v>
+        <v>0.01628469632200233</v>
       </c>
       <c r="F9">
-        <v>-0.06056871409894706</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.0433674809257496</v>
+      </c>
+      <c r="G9">
+        <v>-0.07692194923419933</v>
+      </c>
+      <c r="H9">
+        <v>0.02717760245695581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03171548051168237</v>
+        <v>0.0521616252149873</v>
       </c>
       <c r="C10">
-        <v>-0.07338376344741354</v>
+        <v>-0.0161702987505187</v>
       </c>
       <c r="D10">
-        <v>-0.1067375009967324</v>
+        <v>0.1501156022280352</v>
       </c>
       <c r="E10">
-        <v>-0.09966003483846236</v>
+        <v>-0.0202761962445678</v>
       </c>
       <c r="F10">
-        <v>-0.07782815271074364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.07743286160757835</v>
+      </c>
+      <c r="G10">
+        <v>-0.04347206611172119</v>
+      </c>
+      <c r="H10">
+        <v>0.02477894631257968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.04540200701822102</v>
+        <v>0.03239617199591514</v>
       </c>
       <c r="C11">
-        <v>-0.008204914735611139</v>
+        <v>-0.01685073043428254</v>
       </c>
       <c r="D11">
-        <v>0.0301642549058937</v>
+        <v>-0.02807744943219796</v>
       </c>
       <c r="E11">
-        <v>0.01584401510140622</v>
+        <v>-0.005167178610629579</v>
       </c>
       <c r="F11">
-        <v>-0.03901212432405345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.0201379531170383</v>
+      </c>
+      <c r="G11">
+        <v>-0.04583896861000906</v>
+      </c>
+      <c r="H11">
+        <v>0.008157575254979796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04496340592313015</v>
+        <v>0.03701880674848303</v>
       </c>
       <c r="C12">
-        <v>-0.009737819134073544</v>
+        <v>-0.01416658183810312</v>
       </c>
       <c r="D12">
-        <v>0.02629203693180971</v>
+        <v>-0.02728456477059141</v>
       </c>
       <c r="E12">
-        <v>0.03434815412668506</v>
+        <v>0.006221252244816006</v>
       </c>
       <c r="F12">
-        <v>-0.02280675360989627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02459519006057189</v>
+      </c>
+      <c r="G12">
+        <v>-0.01517377460921481</v>
+      </c>
+      <c r="H12">
+        <v>0.006782811791839895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.04815122240410431</v>
+        <v>0.03768049714974999</v>
       </c>
       <c r="C13">
-        <v>-0.02264741473304723</v>
+        <v>0.005451825977342323</v>
       </c>
       <c r="D13">
-        <v>0.05244248119400973</v>
+        <v>-0.01426801199106595</v>
       </c>
       <c r="E13">
-        <v>-0.00685061121007935</v>
+        <v>-0.01782534617831723</v>
       </c>
       <c r="F13">
-        <v>-0.1096597283269131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02131521963486627</v>
+      </c>
+      <c r="G13">
+        <v>-0.08950628591401377</v>
+      </c>
+      <c r="H13">
+        <v>0.03163851132121245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02538670003695717</v>
+        <v>0.02105752657999766</v>
       </c>
       <c r="C14">
-        <v>-0.01925767160135925</v>
+        <v>-0.004462900206100311</v>
       </c>
       <c r="D14">
-        <v>0.03914137448118079</v>
+        <v>-0.007703552038273779</v>
       </c>
       <c r="E14">
-        <v>0.0245601897350244</v>
+        <v>0.005636407843699342</v>
       </c>
       <c r="F14">
-        <v>-0.04144740149615659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02984075154615594</v>
+      </c>
+      <c r="G14">
+        <v>-0.04093934511548135</v>
+      </c>
+      <c r="H14">
+        <v>0.06469855639562513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03742483905366215</v>
+        <v>0.0303496194977394</v>
       </c>
       <c r="C16">
-        <v>-0.008271258631739742</v>
+        <v>-0.01587022412758827</v>
       </c>
       <c r="D16">
-        <v>0.02636983451560905</v>
+        <v>-0.02684713092175018</v>
       </c>
       <c r="E16">
-        <v>0.01602761165420204</v>
+        <v>9.366008660516811e-05</v>
       </c>
       <c r="F16">
-        <v>-0.02914621629992129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02208993719732317</v>
+      </c>
+      <c r="G16">
+        <v>-0.03347686921311618</v>
+      </c>
+      <c r="H16">
+        <v>0.009196696002678952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.05798065411799237</v>
+        <v>0.04129899097083575</v>
       </c>
       <c r="C19">
-        <v>-0.001394422098123609</v>
+        <v>-0.008049092649684538</v>
       </c>
       <c r="D19">
-        <v>0.04449580114970458</v>
+        <v>-0.02746146739643129</v>
       </c>
       <c r="E19">
-        <v>0.01195246493265425</v>
+        <v>-0.005179174944838361</v>
       </c>
       <c r="F19">
-        <v>-0.08923426173235485</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.0292204415357495</v>
+      </c>
+      <c r="G19">
+        <v>-0.08861488006969792</v>
+      </c>
+      <c r="H19">
+        <v>0.03896085325538187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0162988457982541</v>
+        <v>0.0125804294669323</v>
       </c>
       <c r="C20">
-        <v>-0.01244160133824916</v>
+        <v>0.004061896452786073</v>
       </c>
       <c r="D20">
-        <v>0.04401221559492546</v>
+        <v>-0.01462797785668601</v>
       </c>
       <c r="E20">
-        <v>0.03839258820334496</v>
+        <v>0.003820925972950152</v>
       </c>
       <c r="F20">
-        <v>-0.05690966681092838</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02301453122449697</v>
+      </c>
+      <c r="G20">
+        <v>-0.05348704463865572</v>
+      </c>
+      <c r="H20">
+        <v>0.05866773698895993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01718063591580402</v>
+        <v>0.02590214512356447</v>
       </c>
       <c r="C21">
-        <v>0.005667193584787747</v>
+        <v>0.002309442728010452</v>
       </c>
       <c r="D21">
-        <v>0.0369644686840334</v>
+        <v>-0.01386016414299397</v>
       </c>
       <c r="E21">
-        <v>0.01806302769851443</v>
+        <v>0.01125881718548106</v>
       </c>
       <c r="F21">
-        <v>-0.09537916141991648</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01102503643897037</v>
+      </c>
+      <c r="G21">
+        <v>-0.0734438174148917</v>
+      </c>
+      <c r="H21">
+        <v>0.02740597549052326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03458846179653464</v>
+        <v>0.02925322637241321</v>
       </c>
       <c r="C24">
-        <v>-0.007351892556441087</v>
+        <v>-0.01048327300192353</v>
       </c>
       <c r="D24">
-        <v>0.02319597444312856</v>
+        <v>-0.02440600365703578</v>
       </c>
       <c r="E24">
-        <v>0.01706499648685971</v>
+        <v>0.0008056419119957857</v>
       </c>
       <c r="F24">
-        <v>-0.03844800016949437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.01853833645236289</v>
+      </c>
+      <c r="G24">
+        <v>-0.03600659936149647</v>
+      </c>
+      <c r="H24">
+        <v>0.004312700751286335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03942107842895141</v>
+        <v>0.03946104790817531</v>
       </c>
       <c r="C25">
-        <v>-0.007773827437241095</v>
+        <v>-0.009541588117837608</v>
       </c>
       <c r="D25">
-        <v>0.02645211568260674</v>
+        <v>-0.0242332255685669</v>
       </c>
       <c r="E25">
-        <v>0.02415583061088095</v>
+        <v>0.0009591279579890618</v>
       </c>
       <c r="F25">
-        <v>-0.04634960980230804</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02297695099476363</v>
+      </c>
+      <c r="G25">
+        <v>-0.04369951468895525</v>
+      </c>
+      <c r="H25">
+        <v>0.001453548981955222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02095006672877328</v>
+        <v>0.01920429668712595</v>
       </c>
       <c r="C26">
-        <v>0.003157814966165964</v>
+        <v>0.01586305498334444</v>
       </c>
       <c r="D26">
-        <v>0.04989695845091716</v>
+        <v>-0.01718205609062518</v>
       </c>
       <c r="E26">
-        <v>0.007351836567753997</v>
+        <v>-0.004506549505496366</v>
       </c>
       <c r="F26">
-        <v>-0.04741965763181226</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008971892370601644</v>
+      </c>
+      <c r="G26">
+        <v>-0.04806945117891074</v>
+      </c>
+      <c r="H26">
+        <v>0.04170206081162714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.09994475443814253</v>
+        <v>0.04968263457875678</v>
       </c>
       <c r="C27">
-        <v>-0.05074701264247067</v>
+        <v>-0.02423923891894694</v>
       </c>
       <c r="D27">
-        <v>0.03053023675249354</v>
+        <v>-0.007932316015089078</v>
       </c>
       <c r="E27">
-        <v>0.0336488432736441</v>
+        <v>-0.0008303692933211716</v>
       </c>
       <c r="F27">
-        <v>-0.06019693638193599</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.02498728803872669</v>
+      </c>
+      <c r="G27">
+        <v>-0.04565413033456279</v>
+      </c>
+      <c r="H27">
+        <v>0.03242999518337363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04576634534739131</v>
+        <v>0.08015416303019665</v>
       </c>
       <c r="C28">
-        <v>-0.09132500435512342</v>
+        <v>-0.011478880280126</v>
       </c>
       <c r="D28">
-        <v>-0.1789520404195454</v>
+        <v>0.2343366781897344</v>
       </c>
       <c r="E28">
-        <v>-0.1439494496358473</v>
+        <v>-0.02320291336738162</v>
       </c>
       <c r="F28">
-        <v>-0.05378978732470794</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1072168936217035</v>
+      </c>
+      <c r="G28">
+        <v>-0.02045182813026681</v>
+      </c>
+      <c r="H28">
+        <v>0.05270467078322329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02673357827674983</v>
+        <v>0.02220400093381468</v>
       </c>
       <c r="C29">
-        <v>-0.01500440625122605</v>
+        <v>-0.005033968609437401</v>
       </c>
       <c r="D29">
-        <v>0.03642798931649018</v>
+        <v>-0.009402684459956573</v>
       </c>
       <c r="E29">
-        <v>0.03470360369457329</v>
+        <v>0.0077344219117732</v>
       </c>
       <c r="F29">
-        <v>-0.02690506461017457</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03005899592123721</v>
+      </c>
+      <c r="G29">
+        <v>-0.03514760631615559</v>
+      </c>
+      <c r="H29">
+        <v>0.06598334152810741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09415406444115099</v>
+        <v>0.07500380586359426</v>
       </c>
       <c r="C30">
-        <v>-0.05744646572955601</v>
+        <v>-0.01323682609047422</v>
       </c>
       <c r="D30">
-        <v>0.06676376355666774</v>
+        <v>-0.03885992026505129</v>
       </c>
       <c r="E30">
-        <v>0.02862577240641665</v>
+        <v>-0.04168720181175745</v>
       </c>
       <c r="F30">
-        <v>-0.08638542243191517</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.06332347186873474</v>
+      </c>
+      <c r="G30">
+        <v>-0.09508895721001738</v>
+      </c>
+      <c r="H30">
+        <v>0.01351159042313393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06137067286668966</v>
+        <v>0.053814124550906</v>
       </c>
       <c r="C31">
-        <v>-0.01850066722693905</v>
+        <v>-0.02144092916976719</v>
       </c>
       <c r="D31">
-        <v>0.03945885836604294</v>
+        <v>-0.0122183507903578</v>
       </c>
       <c r="E31">
-        <v>-0.02409731823899732</v>
+        <v>-0.0105025217879476</v>
       </c>
       <c r="F31">
-        <v>-0.01514134332027125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01537130237594348</v>
+      </c>
+      <c r="G31">
+        <v>-0.0150485431021979</v>
+      </c>
+      <c r="H31">
+        <v>0.06081911319495006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.05067965093654835</v>
+        <v>0.02134330695774561</v>
       </c>
       <c r="C32">
-        <v>-0.0236588013798645</v>
+        <v>-0.02157096367808767</v>
       </c>
       <c r="D32">
-        <v>0.04816360685869542</v>
+        <v>-0.01924626048575727</v>
       </c>
       <c r="E32">
-        <v>0.04135511660501522</v>
+        <v>0.01442626437151828</v>
       </c>
       <c r="F32">
-        <v>-0.06397231348556766</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.05419458070218029</v>
+      </c>
+      <c r="G32">
+        <v>-0.07687092488679134</v>
+      </c>
+      <c r="H32">
+        <v>0.006614927185232987</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.06156836838133398</v>
+        <v>0.04604008829400789</v>
       </c>
       <c r="C33">
-        <v>-0.001375589068876263</v>
+        <v>-0.009539835619792348</v>
       </c>
       <c r="D33">
-        <v>0.06532178618074468</v>
+        <v>-0.03856645446976655</v>
       </c>
       <c r="E33">
-        <v>0.0154973184916371</v>
+        <v>-0.02150581445046114</v>
       </c>
       <c r="F33">
-        <v>-0.08482221655294975</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01291265009199403</v>
+      </c>
+      <c r="G33">
+        <v>-0.07692890467784777</v>
+      </c>
+      <c r="H33">
+        <v>0.04812561841315241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03926174027900569</v>
+        <v>0.03102111039922242</v>
       </c>
       <c r="C34">
-        <v>-0.01457662162380919</v>
+        <v>-0.02380196413536194</v>
       </c>
       <c r="D34">
-        <v>0.02999584761349104</v>
+        <v>-0.02509206110854976</v>
       </c>
       <c r="E34">
-        <v>0.02332818663794777</v>
+        <v>0.005725946517829437</v>
       </c>
       <c r="F34">
-        <v>-0.03920984635948681</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.0273188521197866</v>
+      </c>
+      <c r="G34">
+        <v>-0.03732601611463267</v>
+      </c>
+      <c r="H34">
+        <v>0.005851046125284679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01862403762167509</v>
+        <v>0.01964862084602427</v>
       </c>
       <c r="C36">
-        <v>-0.01320911821368595</v>
+        <v>0.002545416151881938</v>
       </c>
       <c r="D36">
-        <v>0.006546523820978847</v>
+        <v>0.002327075803590397</v>
       </c>
       <c r="E36">
-        <v>0.007011888653389484</v>
+        <v>0.001853846769982918</v>
       </c>
       <c r="F36">
-        <v>-0.03144590225432662</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.005240203857230639</v>
+      </c>
+      <c r="G36">
+        <v>-0.03110160463924073</v>
+      </c>
+      <c r="H36">
+        <v>0.03702139106582</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01178000152231453</v>
+        <v>0.01781787764566056</v>
       </c>
       <c r="C38">
-        <v>-0.007346224081263891</v>
+        <v>-0.01730547996540443</v>
       </c>
       <c r="D38">
-        <v>-0.01415977956933115</v>
+        <v>-5.836004479548819e-05</v>
       </c>
       <c r="E38">
-        <v>0.001779562112627573</v>
+        <v>0.003340420590071046</v>
       </c>
       <c r="F38">
-        <v>-0.03069963361629934</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.004961407286750781</v>
+      </c>
+      <c r="G38">
+        <v>-0.04227557787352065</v>
+      </c>
+      <c r="H38">
+        <v>0.01837601415337593</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.05322162007889172</v>
+        <v>0.03919999566304748</v>
       </c>
       <c r="C39">
-        <v>-0.01745457781043673</v>
+        <v>-0.01484206053894358</v>
       </c>
       <c r="D39">
-        <v>0.04741884988958654</v>
+        <v>-0.04473413197246159</v>
       </c>
       <c r="E39">
-        <v>0.01226761066061604</v>
+        <v>-0.004436632218007626</v>
       </c>
       <c r="F39">
-        <v>-0.03691898566615223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.0428674995295389</v>
+      </c>
+      <c r="G39">
+        <v>-0.05427421675256913</v>
+      </c>
+      <c r="H39">
+        <v>-0.004827900718603184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.05368956780883601</v>
+        <v>0.04339608893385178</v>
       </c>
       <c r="C40">
-        <v>-0.03808478158138855</v>
+        <v>-0.01152242055197262</v>
       </c>
       <c r="D40">
-        <v>0.07892116250556287</v>
+        <v>-0.03336335782473364</v>
       </c>
       <c r="E40">
-        <v>-0.0004365173259731242</v>
+        <v>-0.02317561726416212</v>
       </c>
       <c r="F40">
-        <v>-0.08244721415263727</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03493242833287188</v>
+      </c>
+      <c r="G40">
+        <v>-0.07156761629452812</v>
+      </c>
+      <c r="H40">
+        <v>0.03075732496709045</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004226146832730137</v>
+        <v>0.004740439128462054</v>
       </c>
       <c r="C41">
-        <v>0.007253912296455917</v>
+        <v>0.002107522283408186</v>
       </c>
       <c r="D41">
-        <v>0.01940778130308944</v>
+        <v>-0.0006526313290412176</v>
       </c>
       <c r="E41">
-        <v>0.01467532713694726</v>
+        <v>-4.100132612188535e-05</v>
       </c>
       <c r="F41">
-        <v>-0.005763538043282964</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>1.537960061539143e-05</v>
+      </c>
+      <c r="G41">
+        <v>-0.008631134951930785</v>
+      </c>
+      <c r="H41">
+        <v>0.04954355722903039</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3744118479205354</v>
+        <v>0.2438368793747321</v>
       </c>
       <c r="C42">
-        <v>0.8699152878879995</v>
+        <v>0.04659136829807303</v>
       </c>
       <c r="D42">
-        <v>-0.1012636014563742</v>
+        <v>-0.5003759251979266</v>
       </c>
       <c r="E42">
-        <v>-0.2441731036078509</v>
+        <v>-0.02794270983898802</v>
       </c>
       <c r="F42">
-        <v>0.04334317763205303</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8104601472832746</v>
+      </c>
+      <c r="G42">
+        <v>0.08643238017770905</v>
+      </c>
+      <c r="H42">
+        <v>-0.02402850805951551</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01049836058191073</v>
+        <v>0.001607807835759714</v>
       </c>
       <c r="C43">
-        <v>0.002906820841211485</v>
+        <v>0.004587641467672354</v>
       </c>
       <c r="D43">
-        <v>0.02743308409821648</v>
+        <v>-0.001167865787368391</v>
       </c>
       <c r="E43">
-        <v>0.01222964545207923</v>
+        <v>-0.003090713577489149</v>
       </c>
       <c r="F43">
-        <v>-0.02996750985366915</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.0006666096845465313</v>
+      </c>
+      <c r="G43">
+        <v>-0.02026923458448768</v>
+      </c>
+      <c r="H43">
+        <v>0.04672365847399579</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.03220726606241391</v>
+        <v>0.01574811458378167</v>
       </c>
       <c r="C44">
-        <v>-0.004865878206370598</v>
+        <v>-0.003719691772020885</v>
       </c>
       <c r="D44">
-        <v>0.05990358028845898</v>
+        <v>-0.02122029712557137</v>
       </c>
       <c r="E44">
-        <v>0.02788257462786466</v>
+        <v>0.003188125439795328</v>
       </c>
       <c r="F44">
-        <v>-0.1596361463873311</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01508919810907202</v>
+      </c>
+      <c r="G44">
+        <v>-0.1186847433340966</v>
+      </c>
+      <c r="H44">
+        <v>0.08651902579742599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02791298411895373</v>
+        <v>0.02219628205785354</v>
       </c>
       <c r="C46">
-        <v>-0.01141353619420534</v>
+        <v>-0.001986202180652262</v>
       </c>
       <c r="D46">
-        <v>0.05269974374092491</v>
+        <v>-0.02112270297313519</v>
       </c>
       <c r="E46">
-        <v>0.02509622693766392</v>
+        <v>-0.004137344028225679</v>
       </c>
       <c r="F46">
-        <v>-0.02496170613306758</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03957122267538631</v>
+      </c>
+      <c r="G46">
+        <v>-0.04874150469634714</v>
+      </c>
+      <c r="H46">
+        <v>0.06531566745694715</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09343480582874361</v>
+        <v>0.07879684642700258</v>
       </c>
       <c r="C47">
-        <v>-0.03241575254003681</v>
+        <v>-0.04182628056092834</v>
       </c>
       <c r="D47">
-        <v>0.03278158800204548</v>
+        <v>-0.01785208177559501</v>
       </c>
       <c r="E47">
-        <v>0.01306813285382411</v>
+        <v>-0.006646078846530288</v>
       </c>
       <c r="F47">
-        <v>0.011957368379948</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02602178141598801</v>
+      </c>
+      <c r="G47">
+        <v>0.01710291829811384</v>
+      </c>
+      <c r="H47">
+        <v>0.07309514162132903</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01446724025673605</v>
+        <v>0.01827502880349318</v>
       </c>
       <c r="C48">
-        <v>-0.008956226917906922</v>
+        <v>-0.00761687243746013</v>
       </c>
       <c r="D48">
-        <v>0.03072430403672003</v>
+        <v>-0.007312129515934501</v>
       </c>
       <c r="E48">
-        <v>0.01518715345516938</v>
+        <v>-0.0005236661781274074</v>
       </c>
       <c r="F48">
-        <v>-0.04558231935578567</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01221627070515302</v>
+      </c>
+      <c r="G48">
+        <v>-0.03507502530893825</v>
+      </c>
+      <c r="H48">
+        <v>0.03248170393002064</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09487443790293558</v>
+        <v>0.07614301484470376</v>
       </c>
       <c r="C50">
-        <v>-0.01188676896906748</v>
+        <v>-0.03718120872198167</v>
       </c>
       <c r="D50">
-        <v>0.03787746817197555</v>
+        <v>-0.03030897656834563</v>
       </c>
       <c r="E50">
-        <v>0.002343300020332566</v>
+        <v>0.006854583434929264</v>
       </c>
       <c r="F50">
-        <v>-0.003253304296762692</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.0175484190980851</v>
+      </c>
+      <c r="G50">
+        <v>-0.01272085703257969</v>
+      </c>
+      <c r="H50">
+        <v>0.06057227956305338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.04598723812406512</v>
+        <v>0.02362212774450635</v>
       </c>
       <c r="C51">
-        <v>-0.004973451464168034</v>
+        <v>-0.002803115441877829</v>
       </c>
       <c r="D51">
-        <v>0.03116600097251585</v>
+        <v>0.004492141000972302</v>
       </c>
       <c r="E51">
-        <v>-0.03868280810265379</v>
+        <v>-0.0121446015766952</v>
       </c>
       <c r="F51">
-        <v>-0.1275772267689912</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01316492205204352</v>
+      </c>
+      <c r="G51">
+        <v>-0.0936831006443013</v>
+      </c>
+      <c r="H51">
+        <v>0.06389177853351628</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1203963328449173</v>
+        <v>0.10499273899913</v>
       </c>
       <c r="C53">
-        <v>-0.02955362235322609</v>
+        <v>-0.05566430662736548</v>
       </c>
       <c r="D53">
-        <v>0.06687159424263323</v>
+        <v>-0.04713953123734269</v>
       </c>
       <c r="E53">
-        <v>0.01584339189091855</v>
+        <v>-0.005449979933894488</v>
       </c>
       <c r="F53">
-        <v>0.07902771547886711</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05577828351981712</v>
+      </c>
+      <c r="G53">
+        <v>0.05606671980216753</v>
+      </c>
+      <c r="H53">
+        <v>0.03111987291742387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.0235833411944151</v>
+        <v>0.0203942028769405</v>
       </c>
       <c r="C54">
-        <v>-0.02609603291722603</v>
+        <v>-0.01390402085391874</v>
       </c>
       <c r="D54">
-        <v>0.02162534444619105</v>
+        <v>0.009851596744216571</v>
       </c>
       <c r="E54">
-        <v>0.01704945621436964</v>
+        <v>0.002043664811707111</v>
       </c>
       <c r="F54">
-        <v>-0.04646933178320091</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01939286321469907</v>
+      </c>
+      <c r="G54">
+        <v>-0.04113462318452623</v>
+      </c>
+      <c r="H54">
+        <v>0.06985986079619595</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.103738162840031</v>
+        <v>0.08849480092293997</v>
       </c>
       <c r="C55">
-        <v>-0.02956746481592741</v>
+        <v>-0.04788207440126143</v>
       </c>
       <c r="D55">
-        <v>0.01636368566571476</v>
+        <v>-0.03735573041929161</v>
       </c>
       <c r="E55">
-        <v>0.0414976721624133</v>
+        <v>0.009142730093693041</v>
       </c>
       <c r="F55">
-        <v>0.06471863895676409</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04706942675336384</v>
+      </c>
+      <c r="G55">
+        <v>0.04515900950962975</v>
+      </c>
+      <c r="H55">
+        <v>0.04379984641286951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1381262050643087</v>
+        <v>0.1363044374220938</v>
       </c>
       <c r="C56">
-        <v>-0.07478342448622255</v>
+        <v>-0.07845648012190085</v>
       </c>
       <c r="D56">
-        <v>0.04201420861082637</v>
+        <v>-0.03903063575399483</v>
       </c>
       <c r="E56">
-        <v>0.04174967905325763</v>
+        <v>-0.001171644270190036</v>
       </c>
       <c r="F56">
-        <v>0.1426434880558372</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.07699038188767333</v>
+      </c>
+      <c r="G56">
+        <v>0.1038173485995468</v>
+      </c>
+      <c r="H56">
+        <v>0.001476050940720483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.06077614512857867</v>
+        <v>0.05614785551801005</v>
       </c>
       <c r="C57">
-        <v>-0.02244220608897096</v>
+        <v>-0.001944964394764854</v>
       </c>
       <c r="D57">
-        <v>0.04379348841686364</v>
+        <v>-0.01884411803681229</v>
       </c>
       <c r="E57">
-        <v>-0.008804926029152463</v>
+        <v>-0.01662606607702862</v>
       </c>
       <c r="F57">
-        <v>-0.0731059372739933</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.01483665912575812</v>
+      </c>
+      <c r="G57">
+        <v>-0.05950523911181235</v>
+      </c>
+      <c r="H57">
+        <v>0.01876971674204293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2288775456371606</v>
+        <v>0.1716196308929902</v>
       </c>
       <c r="C58">
-        <v>-0.05630973629098317</v>
+        <v>-0.07093156021971633</v>
       </c>
       <c r="D58">
-        <v>0.1241186540367418</v>
+        <v>-0.07296760901756258</v>
       </c>
       <c r="E58">
-        <v>0.01143354621396363</v>
+        <v>-0.1093163634052346</v>
       </c>
       <c r="F58">
-        <v>-0.1917943740897487</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.01248872043744497</v>
+      </c>
+      <c r="G58">
+        <v>-0.4195129440684823</v>
+      </c>
+      <c r="H58">
+        <v>0.367912562317192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.0514087626043797</v>
+        <v>0.08182061041705846</v>
       </c>
       <c r="C59">
-        <v>-0.1128582116738157</v>
+        <v>-0.02053134914129522</v>
       </c>
       <c r="D59">
-        <v>-0.1312744191309369</v>
+        <v>0.2082063887966491</v>
       </c>
       <c r="E59">
-        <v>-0.09526259356018697</v>
+        <v>-0.03729204944866537</v>
       </c>
       <c r="F59">
-        <v>-0.03802471988373727</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.06984928599262466</v>
+      </c>
+      <c r="G59">
+        <v>-0.0438270695647751</v>
+      </c>
+      <c r="H59">
+        <v>0.008929141626055008</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1761808147631969</v>
+        <v>0.1850267491741031</v>
       </c>
       <c r="C60">
-        <v>-0.08373752481232533</v>
+        <v>-0.06471107020884687</v>
       </c>
       <c r="D60">
-        <v>0.00823432309364862</v>
+        <v>0.04026082588529598</v>
       </c>
       <c r="E60">
-        <v>-0.08540937099500874</v>
+        <v>-0.06982386453992666</v>
       </c>
       <c r="F60">
-        <v>-0.1402769074184824</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.03059124509128975</v>
+      </c>
+      <c r="G60">
+        <v>-0.1968666294819695</v>
+      </c>
+      <c r="H60">
+        <v>-0.3742952544613578</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.03274914128295455</v>
+        <v>0.03232503991546588</v>
       </c>
       <c r="C61">
-        <v>-0.01144664667473876</v>
+        <v>-0.01513362993652727</v>
       </c>
       <c r="D61">
-        <v>0.01951930088055539</v>
+        <v>-0.02900480327581064</v>
       </c>
       <c r="E61">
-        <v>0.019722360700964</v>
+        <v>0.00130886749207349</v>
       </c>
       <c r="F61">
-        <v>-0.03373273053982894</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.0297808991849392</v>
+      </c>
+      <c r="G61">
+        <v>-0.03922270084157939</v>
+      </c>
+      <c r="H61">
+        <v>-0.01004270233523249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.02598031468271461</v>
+        <v>0.02194643243386731</v>
       </c>
       <c r="C63">
-        <v>-0.02071353404464199</v>
+        <v>-0.004421257065084845</v>
       </c>
       <c r="D63">
-        <v>0.0464814704320897</v>
+        <v>-0.01765089910974069</v>
       </c>
       <c r="E63">
-        <v>0.0256873683022894</v>
+        <v>-0.0007257151263877549</v>
       </c>
       <c r="F63">
-        <v>-0.036371365431615</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02651239987385037</v>
+      </c>
+      <c r="G63">
+        <v>-0.03203084196857092</v>
+      </c>
+      <c r="H63">
+        <v>0.05549861718971542</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.052423858336545</v>
+        <v>0.04778230263450321</v>
       </c>
       <c r="C64">
-        <v>-0.0123395790280266</v>
+        <v>-0.02009005839383588</v>
       </c>
       <c r="D64">
-        <v>0.04237353512475806</v>
+        <v>-0.03619621839193863</v>
       </c>
       <c r="E64">
-        <v>0.0621781415768965</v>
+        <v>0.0101341837873243</v>
       </c>
       <c r="F64">
-        <v>-0.05616874991234069</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03296349680693697</v>
+      </c>
+      <c r="G64">
+        <v>-0.03913272030234369</v>
+      </c>
+      <c r="H64">
+        <v>0.02924136409766149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.00647307319519525</v>
+        <v>0.03926820854654566</v>
       </c>
       <c r="C65">
-        <v>-0.002475996026563572</v>
+        <v>-0.003534341750082535</v>
       </c>
       <c r="D65">
-        <v>0.001103027213510527</v>
+        <v>-0.01610096121120556</v>
       </c>
       <c r="E65">
-        <v>-0.005202255473762107</v>
+        <v>0.002773035915043181</v>
       </c>
       <c r="F65">
-        <v>-0.002122121530849485</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.02706970380668544</v>
+      </c>
+      <c r="G65">
+        <v>-0.004967366229657004</v>
+      </c>
+      <c r="H65">
+        <v>-0.03659694091929468</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.05131845531416496</v>
+        <v>0.04656684156766906</v>
       </c>
       <c r="C66">
-        <v>-0.03099283860913466</v>
+        <v>-0.02142927402405225</v>
       </c>
       <c r="D66">
-        <v>0.05604634688336688</v>
+        <v>-0.04718482922944212</v>
       </c>
       <c r="E66">
-        <v>0.03033005232714934</v>
+        <v>-0.01150587523331204</v>
       </c>
       <c r="F66">
-        <v>-0.07499068951415995</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06782529494468503</v>
+      </c>
+      <c r="G66">
+        <v>-0.06428363297469483</v>
+      </c>
+      <c r="H66">
+        <v>-0.01933908066169666</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02843420603284108</v>
+        <v>0.03510192065368363</v>
       </c>
       <c r="C67">
-        <v>-0.01800181507903357</v>
+        <v>-0.02121765158527417</v>
       </c>
       <c r="D67">
-        <v>-0.02575749032735364</v>
+        <v>0.01121651634960491</v>
       </c>
       <c r="E67">
-        <v>-0.01425192011321138</v>
+        <v>-0.002060574771702831</v>
       </c>
       <c r="F67">
-        <v>-0.03760186734198015</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.004250401606753162</v>
+      </c>
+      <c r="G67">
+        <v>-0.03483369918793998</v>
+      </c>
+      <c r="H67">
+        <v>4.189388075017807e-05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05757373585404812</v>
+        <v>0.08735176889217526</v>
       </c>
       <c r="C68">
-        <v>-0.102220236664903</v>
+        <v>0.0004956368899915311</v>
       </c>
       <c r="D68">
-        <v>-0.1850060382110088</v>
+        <v>0.2237238532495073</v>
       </c>
       <c r="E68">
-        <v>-0.1384655706013177</v>
+        <v>-0.03255261182047327</v>
       </c>
       <c r="F68">
-        <v>0.007378779659627445</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.1027749517469663</v>
+      </c>
+      <c r="G68">
+        <v>0.001128954294519319</v>
+      </c>
+      <c r="H68">
+        <v>0.04489967872498192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07589517409945719</v>
+        <v>0.0635046098767931</v>
       </c>
       <c r="C69">
-        <v>-0.03155062400203153</v>
+        <v>-0.03800171846458969</v>
       </c>
       <c r="D69">
-        <v>0.0183802234760453</v>
+        <v>-0.01282572049042421</v>
       </c>
       <c r="E69">
-        <v>-0.006793413418992551</v>
+        <v>-0.008821814413356976</v>
       </c>
       <c r="F69">
-        <v>-0.003564078575404262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02076227472925727</v>
+      </c>
+      <c r="G69">
+        <v>0.0004296571107042183</v>
+      </c>
+      <c r="H69">
+        <v>0.04513842227925462</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05617038818658112</v>
+        <v>0.08457934633362539</v>
       </c>
       <c r="C71">
-        <v>-0.119899623753081</v>
+        <v>-0.00793819243385268</v>
       </c>
       <c r="D71">
-        <v>-0.2267490439334473</v>
+        <v>0.2374893339215718</v>
       </c>
       <c r="E71">
-        <v>-0.2234205044977728</v>
+        <v>-0.03971065498976752</v>
       </c>
       <c r="F71">
-        <v>-0.05991878988654144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.1243718895798504</v>
+      </c>
+      <c r="G71">
+        <v>-0.01837336282232454</v>
+      </c>
+      <c r="H71">
+        <v>0.01683330766746438</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1256265504470832</v>
+        <v>0.1176268997469728</v>
       </c>
       <c r="C72">
-        <v>-0.09980365506441022</v>
+        <v>-0.06962318327175264</v>
       </c>
       <c r="D72">
-        <v>0.04786511212344791</v>
+        <v>-0.03358234485987669</v>
       </c>
       <c r="E72">
-        <v>0.03026698006409069</v>
+        <v>-0.01982499043803492</v>
       </c>
       <c r="F72">
-        <v>-0.02246777453604449</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1005850554884</v>
+      </c>
+      <c r="G72">
+        <v>-0.1064690628666614</v>
+      </c>
+      <c r="H72">
+        <v>-0.07834466544409571</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2470462774770744</v>
+        <v>0.2540332523513639</v>
       </c>
       <c r="C73">
-        <v>-0.1225063879125289</v>
+        <v>-0.08436547014097411</v>
       </c>
       <c r="D73">
-        <v>-0.03178867170185412</v>
+        <v>0.03013942665534896</v>
       </c>
       <c r="E73">
-        <v>-0.1188073405778961</v>
+        <v>-0.1027153472987426</v>
       </c>
       <c r="F73">
-        <v>-0.2656514501075168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.02578121827483903</v>
+      </c>
+      <c r="G73">
+        <v>-0.2655472867995968</v>
+      </c>
+      <c r="H73">
+        <v>-0.5374381162414139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1299373364234713</v>
+        <v>0.1248397642607286</v>
       </c>
       <c r="C74">
-        <v>-0.0309316586115983</v>
+        <v>-0.07074530065632384</v>
       </c>
       <c r="D74">
-        <v>0.03504605058620771</v>
+        <v>-0.04407854950746571</v>
       </c>
       <c r="E74">
-        <v>0.01958605520398098</v>
+        <v>-0.008190836152227675</v>
       </c>
       <c r="F74">
-        <v>0.1154527091719051</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.05708217322299074</v>
+      </c>
+      <c r="G74">
+        <v>0.08776219285218466</v>
+      </c>
+      <c r="H74">
+        <v>-0.008917557147809011</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2260214052432272</v>
+        <v>0.2350192402291287</v>
       </c>
       <c r="C75">
-        <v>-0.1007181923673751</v>
+        <v>-0.1363420428737232</v>
       </c>
       <c r="D75">
-        <v>0.07769353010830278</v>
+        <v>-0.05228535807006556</v>
       </c>
       <c r="E75">
-        <v>0.01303862059834477</v>
+        <v>-0.03275724930124302</v>
       </c>
       <c r="F75">
-        <v>0.1792435085313054</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1211401511662062</v>
+      </c>
+      <c r="G75">
+        <v>0.17471971385974</v>
+      </c>
+      <c r="H75">
+        <v>0.0150127322914109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2379998609556915</v>
+        <v>0.2230800852824298</v>
       </c>
       <c r="C76">
-        <v>-0.1229381306089698</v>
+        <v>-0.132384731540388</v>
       </c>
       <c r="D76">
-        <v>0.0207135803903434</v>
+        <v>-0.03965288621500442</v>
       </c>
       <c r="E76">
-        <v>0.06397801072944587</v>
+        <v>0.009835901579005617</v>
       </c>
       <c r="F76">
-        <v>0.2039263458463869</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1275575515604801</v>
+      </c>
+      <c r="G76">
+        <v>0.195226996763176</v>
+      </c>
+      <c r="H76">
+        <v>0.03999833390437701</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1544683299613191</v>
+        <v>0.09724730513779681</v>
       </c>
       <c r="C77">
-        <v>0.01452981978144838</v>
+        <v>-0.0296840992327235</v>
       </c>
       <c r="D77">
-        <v>0.07797295552794244</v>
+        <v>-0.07387950657833771</v>
       </c>
       <c r="E77">
-        <v>0.008646687737189906</v>
+        <v>-0.01110651187577595</v>
       </c>
       <c r="F77">
-        <v>-0.2121636927945145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.0103122927795405</v>
+      </c>
+      <c r="G77">
+        <v>-0.1501466367655622</v>
+      </c>
+      <c r="H77">
+        <v>0.1967139950281657</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07694411747329334</v>
+        <v>0.05199199846355216</v>
       </c>
       <c r="C78">
-        <v>0.00150060793119335</v>
+        <v>-0.02349996491961777</v>
       </c>
       <c r="D78">
-        <v>0.08203156194479531</v>
+        <v>-0.05298070538037601</v>
       </c>
       <c r="E78">
-        <v>0.060532517108689</v>
+        <v>0.003098151948597132</v>
       </c>
       <c r="F78">
-        <v>-0.05126957608730987</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04685551064006242</v>
+      </c>
+      <c r="G78">
+        <v>-0.07558620419512604</v>
+      </c>
+      <c r="H78">
+        <v>0.02758045416398073</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1615564058162539</v>
+        <v>0.1710224037278453</v>
       </c>
       <c r="C80">
-        <v>0.08866349792937987</v>
+        <v>-0.06425545854278746</v>
       </c>
       <c r="D80">
-        <v>-0.5948319501281218</v>
+        <v>0.08168118366411327</v>
       </c>
       <c r="E80">
-        <v>0.7547600742484547</v>
+        <v>0.9636448350539573</v>
       </c>
       <c r="F80">
-        <v>-0.1158013639390579</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.05527174874659849</v>
+      </c>
+      <c r="G80">
+        <v>-0.09158336762094885</v>
+      </c>
+      <c r="H80">
+        <v>-0.03117828560859936</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1584435314873545</v>
+        <v>0.1631844568760112</v>
       </c>
       <c r="C81">
-        <v>-0.08073709409021552</v>
+        <v>-0.09461727210233804</v>
       </c>
       <c r="D81">
-        <v>0.05481357391109555</v>
+        <v>-0.03782417568123082</v>
       </c>
       <c r="E81">
-        <v>0.03964329489901677</v>
+        <v>-0.007892276960583927</v>
       </c>
       <c r="F81">
-        <v>0.1977759510835033</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09477876260013518</v>
+      </c>
+      <c r="G81">
+        <v>0.1337717471320978</v>
+      </c>
+      <c r="H81">
+        <v>0.03905805889478914</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05980136280183556</v>
+        <v>0.04342238299830287</v>
       </c>
       <c r="C83">
-        <v>0.01779757005089434</v>
+        <v>-0.01528099558873682</v>
       </c>
       <c r="D83">
-        <v>0.05947782305400563</v>
+        <v>-0.0275849044806225</v>
       </c>
       <c r="E83">
-        <v>0.009167655636302362</v>
+        <v>-0.01197056680375523</v>
       </c>
       <c r="F83">
-        <v>-0.05360886732399683</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.00998118718357985</v>
+      </c>
+      <c r="G83">
+        <v>-0.0573968331851115</v>
+      </c>
+      <c r="H83">
+        <v>0.0341628373764044</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2157088289597871</v>
+        <v>0.2184735278780258</v>
       </c>
       <c r="C85">
-        <v>-0.07078075786266516</v>
+        <v>-0.1163501567699404</v>
       </c>
       <c r="D85">
-        <v>0.06141531379762696</v>
+        <v>-0.07931531921521227</v>
       </c>
       <c r="E85">
-        <v>0.05897090581521603</v>
+        <v>-0.01565297805933388</v>
       </c>
       <c r="F85">
-        <v>0.2337050185993161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1179668123669296</v>
+      </c>
+      <c r="G85">
+        <v>0.1901106678835321</v>
+      </c>
+      <c r="H85">
+        <v>0.02584849420155352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02196334183935961</v>
+        <v>0.01159742110711648</v>
       </c>
       <c r="C86">
-        <v>0.006874714087189888</v>
+        <v>0.000168240759570226</v>
       </c>
       <c r="D86">
-        <v>0.06063916300464825</v>
+        <v>-0.02828747852886318</v>
       </c>
       <c r="E86">
-        <v>0.02673048543180161</v>
+        <v>-0.003138875050769487</v>
       </c>
       <c r="F86">
-        <v>-0.09045687640111348</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01767462044570613</v>
+      </c>
+      <c r="G86">
+        <v>-0.1009841687267089</v>
+      </c>
+      <c r="H86">
+        <v>0.05780500626270042</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.01068080081841889</v>
+        <v>0.02103427961943111</v>
       </c>
       <c r="C87">
-        <v>-0.03631854928050218</v>
+        <v>-0.001770317302415066</v>
       </c>
       <c r="D87">
-        <v>-0.03682540679094957</v>
+        <v>0.01050382319118385</v>
       </c>
       <c r="E87">
-        <v>-0.03037959019365161</v>
+        <v>-0.0007762026335831558</v>
       </c>
       <c r="F87">
-        <v>-0.09349512409937921</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.00378276527918616</v>
+      </c>
+      <c r="G87">
+        <v>-0.1001408566722832</v>
+      </c>
+      <c r="H87">
+        <v>-0.008693315071571905</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01298107244728021</v>
+        <v>0.03718725642851008</v>
       </c>
       <c r="C88">
-        <v>-0.01406546151432228</v>
+        <v>0.007449658596900955</v>
       </c>
       <c r="D88">
-        <v>-0.003714303894559519</v>
+        <v>0.00680464022969268</v>
       </c>
       <c r="E88">
-        <v>0.01964590755085791</v>
+        <v>0.004268398097479896</v>
       </c>
       <c r="F88">
-        <v>-0.02282369586438383</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.007941335891647252</v>
+      </c>
+      <c r="G88">
+        <v>-0.002970619447077618</v>
+      </c>
+      <c r="H88">
+        <v>0.02207358768545979</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.07435871747790848</v>
+        <v>0.1356153503597355</v>
       </c>
       <c r="C89">
-        <v>-0.124560904959717</v>
+        <v>-0.01200713993126382</v>
       </c>
       <c r="D89">
-        <v>-0.2379733088425906</v>
+        <v>0.3615498281987588</v>
       </c>
       <c r="E89">
-        <v>-0.22881027528061</v>
+        <v>-0.07936817027067593</v>
       </c>
       <c r="F89">
-        <v>-0.03739793832726684</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1542069680971267</v>
+      </c>
+      <c r="G89">
+        <v>0.002268396280265379</v>
+      </c>
+      <c r="H89">
+        <v>0.0983037530928168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07459462118528595</v>
+        <v>0.100663683720194</v>
       </c>
       <c r="C90">
-        <v>-0.122702735885222</v>
+        <v>-0.005749449260763677</v>
       </c>
       <c r="D90">
-        <v>-0.2547157105176354</v>
+        <v>0.3027525276050488</v>
       </c>
       <c r="E90">
-        <v>-0.173203420451569</v>
+        <v>-0.04786329480127639</v>
       </c>
       <c r="F90">
-        <v>-0.01987558454764306</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1413729293431608</v>
+      </c>
+      <c r="G90">
+        <v>0.03428084642814074</v>
+      </c>
+      <c r="H90">
+        <v>0.06215214632945226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2806899728527945</v>
+        <v>0.2555763079672739</v>
       </c>
       <c r="C91">
-        <v>-0.08494236152937391</v>
+        <v>-0.1458925411351964</v>
       </c>
       <c r="D91">
-        <v>0.08284059452298137</v>
+        <v>-0.08501015649512786</v>
       </c>
       <c r="E91">
-        <v>0.05313482199978092</v>
+        <v>-0.02367699840982488</v>
       </c>
       <c r="F91">
-        <v>0.3010957077684048</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1217541584627494</v>
+      </c>
+      <c r="G91">
+        <v>0.2469708542173125</v>
+      </c>
+      <c r="H91">
+        <v>0.05871812575282841</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1190813520305709</v>
+        <v>0.1668834225224422</v>
       </c>
       <c r="C92">
-        <v>-0.1000938887415696</v>
+        <v>-0.0823393903558579</v>
       </c>
       <c r="D92">
-        <v>-0.2774329526828307</v>
+        <v>0.3067427648827879</v>
       </c>
       <c r="E92">
-        <v>-0.165253516712428</v>
+        <v>-0.03415670025426067</v>
       </c>
       <c r="F92">
-        <v>0.0005665135885792522</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1453197388622599</v>
+      </c>
+      <c r="G92">
+        <v>0.09610758047889181</v>
+      </c>
+      <c r="H92">
+        <v>0.1648727468827481</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06860395054078749</v>
+        <v>0.1256282147332364</v>
       </c>
       <c r="C93">
-        <v>-0.1120920841154651</v>
+        <v>-0.01658408681190215</v>
       </c>
       <c r="D93">
-        <v>-0.3196370306163633</v>
+        <v>0.3467616181274863</v>
       </c>
       <c r="E93">
-        <v>-0.2331619785798085</v>
+        <v>-0.0657911201457219</v>
       </c>
       <c r="F93">
-        <v>0.008941259740513101</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.206169141461831</v>
+      </c>
+      <c r="G93">
+        <v>0.05066340474895537</v>
+      </c>
+      <c r="H93">
+        <v>-0.003613144960093019</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2410827091849212</v>
+        <v>0.2628132089682303</v>
       </c>
       <c r="C94">
-        <v>-0.1147218879457949</v>
+        <v>-0.1284335324184679</v>
       </c>
       <c r="D94">
-        <v>0.00880458889621398</v>
+        <v>-0.02869268960629678</v>
       </c>
       <c r="E94">
-        <v>0.02140359913053079</v>
+        <v>-0.04158506495717537</v>
       </c>
       <c r="F94">
-        <v>0.3544063338670609</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1195663867462506</v>
+      </c>
+      <c r="G94">
+        <v>0.2813428434785925</v>
+      </c>
+      <c r="H94">
+        <v>0.05111553479325556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1665782383316072</v>
+        <v>0.1095197259829603</v>
       </c>
       <c r="C95">
-        <v>0.009609616488937269</v>
+        <v>-0.06496837577242009</v>
       </c>
       <c r="D95">
-        <v>0.1411806495271946</v>
+        <v>-0.06440001870087318</v>
       </c>
       <c r="E95">
-        <v>-0.008487068925960536</v>
+        <v>-0.08673253535572095</v>
       </c>
       <c r="F95">
-        <v>-0.03850420663846173</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.004669712174156769</v>
+      </c>
+      <c r="G95">
+        <v>-0.07590180726541333</v>
+      </c>
+      <c r="H95">
+        <v>0.1169402105417837</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.191320884481702</v>
+        <v>0.1829919009727155</v>
       </c>
       <c r="C98">
-        <v>-0.06981942648851849</v>
+        <v>-0.09305501385301723</v>
       </c>
       <c r="D98">
-        <v>-0.0264722444044544</v>
+        <v>0.0319695551582363</v>
       </c>
       <c r="E98">
-        <v>-0.1076407396460346</v>
+        <v>-0.07043880024444853</v>
       </c>
       <c r="F98">
-        <v>-0.11488444693489</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.005392361881316201</v>
+      </c>
+      <c r="G98">
+        <v>-0.1992956825483974</v>
+      </c>
+      <c r="H98">
+        <v>-0.3893332119887019</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.001969838673411901</v>
+        <v>0.01541060521151177</v>
       </c>
       <c r="C101">
-        <v>-0.01899538032257658</v>
+        <v>-0.002316416314696186</v>
       </c>
       <c r="D101">
-        <v>0.05571407720335912</v>
+        <v>-0.01349502651692106</v>
       </c>
       <c r="E101">
-        <v>0.0489695054210963</v>
+        <v>0.003418850664275219</v>
       </c>
       <c r="F101">
-        <v>-0.05011926820991071</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03850664767986567</v>
+      </c>
+      <c r="G101">
+        <v>-0.0794925836265877</v>
+      </c>
+      <c r="H101">
+        <v>0.1222975014347086</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.08986530256329052</v>
+        <v>0.1118049204876765</v>
       </c>
       <c r="C102">
-        <v>-0.02764934618073454</v>
+        <v>-0.05250592713470695</v>
       </c>
       <c r="D102">
-        <v>0.04090535425743188</v>
+        <v>-0.03380446461625849</v>
       </c>
       <c r="E102">
-        <v>0.04994716982613855</v>
+        <v>-0.001946002219097241</v>
       </c>
       <c r="F102">
-        <v>0.1044871040014404</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.0693380174960733</v>
+      </c>
+      <c r="G102">
+        <v>0.1141634171851686</v>
+      </c>
+      <c r="H102">
+        <v>0.00936062609715374</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.0198130929785107</v>
+        <v>0.0240391024319677</v>
       </c>
       <c r="C103">
-        <v>-0.008460927780370603</v>
+        <v>-0.01194608624290034</v>
       </c>
       <c r="D103">
-        <v>-7.198867582209836e-05</v>
+        <v>-0.006798948744938732</v>
       </c>
       <c r="E103">
-        <v>0.003697008515307393</v>
+        <v>0.006913558448589653</v>
       </c>
       <c r="F103">
-        <v>0.03130151931280542</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.0129102078418387</v>
+      </c>
+      <c r="G103">
+        <v>0.01348336265563614</v>
+      </c>
+      <c r="H103">
+        <v>0.01570626961786571</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.37582811685408</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9061879567370051</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.00355426302265128</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.005859152691170388</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1611484408730974</v>
+      </c>
+      <c r="G104">
+        <v>0.04963371195762505</v>
+      </c>
+      <c r="H104">
+        <v>0.00190016746149626</v>
       </c>
     </row>
   </sheetData>
